--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adm-Ramp2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adm-Ramp2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.68287882441169</v>
+        <v>7.727457666666666</v>
       </c>
       <c r="H2">
-        <v>1.68287882441169</v>
+        <v>23.182373</v>
       </c>
       <c r="I2">
-        <v>0.04087424536235536</v>
+        <v>0.1630271452636819</v>
       </c>
       <c r="J2">
-        <v>0.04087424536235536</v>
+        <v>0.1630271452636819</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.4512781596284</v>
+        <v>36.72315433333333</v>
       </c>
       <c r="N2">
-        <v>19.4512781596284</v>
+        <v>110.169463</v>
       </c>
       <c r="O2">
-        <v>0.2362454080240406</v>
+        <v>0.3641786446803374</v>
       </c>
       <c r="P2">
-        <v>0.2362454080240406</v>
+        <v>0.3641786446803374</v>
       </c>
       <c r="Q2">
-        <v>32.73414412258023</v>
+        <v>283.7766204972999</v>
       </c>
       <c r="R2">
-        <v>32.73414412258023</v>
+        <v>2553.989584475699</v>
       </c>
       <c r="S2">
-        <v>0.009656352773304394</v>
+        <v>0.05937100480823217</v>
       </c>
       <c r="T2">
-        <v>0.009656352773304394</v>
+        <v>0.05937100480823217</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.68287882441169</v>
+        <v>7.727457666666666</v>
       </c>
       <c r="H3">
-        <v>1.68287882441169</v>
+        <v>23.182373</v>
       </c>
       <c r="I3">
-        <v>0.04087424536235536</v>
+        <v>0.1630271452636819</v>
       </c>
       <c r="J3">
-        <v>0.04087424536235536</v>
+        <v>0.1630271452636819</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.4965698488914</v>
+        <v>61.215745</v>
       </c>
       <c r="N3">
-        <v>60.4965698488914</v>
+        <v>183.647235</v>
       </c>
       <c r="O3">
-        <v>0.7347608064990655</v>
+        <v>0.6070684137000053</v>
       </c>
       <c r="P3">
-        <v>0.7347608064990655</v>
+        <v>0.6070684137000053</v>
       </c>
       <c r="Q3">
-        <v>101.808396348242</v>
+        <v>473.0420780209616</v>
       </c>
       <c r="R3">
-        <v>101.808396348242</v>
+        <v>4257.378702188655</v>
       </c>
       <c r="S3">
-        <v>0.03003279348748492</v>
+        <v>0.09896863046526372</v>
       </c>
       <c r="T3">
-        <v>0.03003279348748492</v>
+        <v>0.0989686304652637</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.68287882441169</v>
+        <v>7.727457666666666</v>
       </c>
       <c r="H4">
-        <v>1.68287882441169</v>
+        <v>23.182373</v>
       </c>
       <c r="I4">
-        <v>0.04087424536235536</v>
+        <v>0.1630271452636819</v>
       </c>
       <c r="J4">
-        <v>0.04087424536235536</v>
+        <v>0.1630271452636819</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.38720486010152</v>
+        <v>2.899397666666667</v>
       </c>
       <c r="N4">
-        <v>2.38720486010152</v>
+        <v>8.698193</v>
       </c>
       <c r="O4">
-        <v>0.02899378547689385</v>
+        <v>0.02875294161965733</v>
       </c>
       <c r="P4">
-        <v>0.02899378547689385</v>
+        <v>0.02875294161965733</v>
       </c>
       <c r="Q4">
-        <v>4.017376508597518</v>
+        <v>22.40497272799878</v>
       </c>
       <c r="R4">
-        <v>4.017376508597518</v>
+        <v>201.644754551989</v>
       </c>
       <c r="S4">
-        <v>0.001185099101566055</v>
+        <v>0.004687509990186041</v>
       </c>
       <c r="T4">
-        <v>0.001185099101566055</v>
+        <v>0.00468750999018604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.2898123310647</v>
+        <v>37.42779933333333</v>
       </c>
       <c r="H5">
-        <v>37.2898123310647</v>
+        <v>112.283398</v>
       </c>
       <c r="I5">
-        <v>0.9057056970628643</v>
+        <v>0.7896189849264272</v>
       </c>
       <c r="J5">
-        <v>0.9057056970628643</v>
+        <v>0.7896189849264271</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.4512781596284</v>
+        <v>36.72315433333333</v>
       </c>
       <c r="N5">
-        <v>19.4512781596284</v>
+        <v>110.169463</v>
       </c>
       <c r="O5">
-        <v>0.2362454080240406</v>
+        <v>0.3641786446803374</v>
       </c>
       <c r="P5">
-        <v>0.2362454080240406</v>
+        <v>0.3641786446803374</v>
       </c>
       <c r="Q5">
-        <v>725.3345121718806</v>
+        <v>1374.46685127503</v>
       </c>
       <c r="R5">
-        <v>725.3345121718806</v>
+        <v>12370.20166147528</v>
       </c>
       <c r="S5">
-        <v>0.2139688119523145</v>
+        <v>0.28756237174437</v>
       </c>
       <c r="T5">
-        <v>0.2139688119523145</v>
+        <v>0.28756237174437</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.2898123310647</v>
+        <v>37.42779933333333</v>
       </c>
       <c r="H6">
-        <v>37.2898123310647</v>
+        <v>112.283398</v>
       </c>
       <c r="I6">
-        <v>0.9057056970628643</v>
+        <v>0.7896189849264272</v>
       </c>
       <c r="J6">
-        <v>0.9057056970628643</v>
+        <v>0.7896189849264271</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.4965698488914</v>
+        <v>61.215745</v>
       </c>
       <c r="N6">
-        <v>60.4965698488914</v>
+        <v>183.647235</v>
       </c>
       <c r="O6">
-        <v>0.7347608064990655</v>
+        <v>0.6070684137000053</v>
       </c>
       <c r="P6">
-        <v>0.7347608064990655</v>
+        <v>0.6070684137000053</v>
       </c>
       <c r="Q6">
-        <v>2255.905736338308</v>
+        <v>2291.170619900503</v>
       </c>
       <c r="R6">
-        <v>2255.905736338308</v>
+        <v>20620.53557910453</v>
       </c>
       <c r="S6">
-        <v>0.6654770484247085</v>
+        <v>0.4793527446066946</v>
       </c>
       <c r="T6">
-        <v>0.6654770484247085</v>
+        <v>0.4793527446066945</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.2898123310647</v>
+        <v>37.42779933333333</v>
       </c>
       <c r="H7">
-        <v>37.2898123310647</v>
+        <v>112.283398</v>
       </c>
       <c r="I7">
-        <v>0.9057056970628643</v>
+        <v>0.7896189849264272</v>
       </c>
       <c r="J7">
-        <v>0.9057056970628643</v>
+        <v>0.7896189849264271</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.38720486010152</v>
+        <v>2.899397666666667</v>
       </c>
       <c r="N7">
-        <v>2.38720486010152</v>
+        <v>8.698193</v>
       </c>
       <c r="O7">
-        <v>0.02899378547689385</v>
+        <v>0.02875294161965733</v>
       </c>
       <c r="P7">
-        <v>0.02899378547689385</v>
+        <v>0.02875294161965733</v>
       </c>
       <c r="Q7">
-        <v>89.01842122899124</v>
+        <v>108.5180740555349</v>
       </c>
       <c r="R7">
-        <v>89.01842122899124</v>
+        <v>976.662666499814</v>
       </c>
       <c r="S7">
-        <v>0.0262598366858413</v>
+        <v>0.02270386857536264</v>
       </c>
       <c r="T7">
-        <v>0.0262598366858413</v>
+        <v>0.02270386857536264</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.19941635361047</v>
+        <v>2.244565</v>
       </c>
       <c r="H8">
-        <v>2.19941635361047</v>
+        <v>6.733695</v>
       </c>
       <c r="I8">
-        <v>0.05342005757478045</v>
+        <v>0.04735386980989085</v>
       </c>
       <c r="J8">
-        <v>0.05342005757478045</v>
+        <v>0.04735386980989083</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.4512781596284</v>
+        <v>36.72315433333333</v>
       </c>
       <c r="N8">
-        <v>19.4512781596284</v>
+        <v>110.169463</v>
       </c>
       <c r="O8">
-        <v>0.2362454080240406</v>
+        <v>0.3641786446803374</v>
       </c>
       <c r="P8">
-        <v>0.2362454080240406</v>
+        <v>0.3641786446803374</v>
       </c>
       <c r="Q8">
-        <v>42.78145928291287</v>
+        <v>82.42750690619835</v>
       </c>
       <c r="R8">
-        <v>42.78145928291287</v>
+        <v>741.847562155785</v>
       </c>
       <c r="S8">
-        <v>0.01262024329842175</v>
+        <v>0.0172452681277352</v>
       </c>
       <c r="T8">
-        <v>0.01262024329842175</v>
+        <v>0.01724526812773519</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.19941635361047</v>
+        <v>2.244565</v>
       </c>
       <c r="H9">
-        <v>2.19941635361047</v>
+        <v>6.733695</v>
       </c>
       <c r="I9">
-        <v>0.05342005757478045</v>
+        <v>0.04735386980989085</v>
       </c>
       <c r="J9">
-        <v>0.05342005757478045</v>
+        <v>0.04735386980989083</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.4965698488914</v>
+        <v>61.215745</v>
       </c>
       <c r="N9">
-        <v>60.4965698488914</v>
+        <v>183.647235</v>
       </c>
       <c r="O9">
-        <v>0.7347608064990655</v>
+        <v>0.6070684137000053</v>
       </c>
       <c r="P9">
-        <v>0.7347608064990655</v>
+        <v>0.6070684137000053</v>
       </c>
       <c r="Q9">
-        <v>133.0571450629898</v>
+        <v>137.402718675925</v>
       </c>
       <c r="R9">
-        <v>133.0571450629898</v>
+        <v>1236.624468083325</v>
       </c>
       <c r="S9">
-        <v>0.0392509645868722</v>
+        <v>0.02874703862804701</v>
       </c>
       <c r="T9">
-        <v>0.0392509645868722</v>
+        <v>0.028747038628047</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.19941635361047</v>
+        <v>2.244565</v>
       </c>
       <c r="H10">
-        <v>2.19941635361047</v>
+        <v>6.733695</v>
       </c>
       <c r="I10">
-        <v>0.05342005757478045</v>
+        <v>0.04735386980989085</v>
       </c>
       <c r="J10">
-        <v>0.05342005757478045</v>
+        <v>0.04735386980989083</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.38720486010152</v>
+        <v>2.899397666666667</v>
       </c>
       <c r="N10">
-        <v>2.38720486010152</v>
+        <v>8.698193</v>
       </c>
       <c r="O10">
-        <v>0.02899378547689385</v>
+        <v>0.02875294161965733</v>
       </c>
       <c r="P10">
-        <v>0.02899378547689385</v>
+        <v>0.02875294161965733</v>
       </c>
       <c r="Q10">
-        <v>5.250457408725677</v>
+        <v>6.507886523681667</v>
       </c>
       <c r="R10">
-        <v>5.250457408725677</v>
+        <v>58.570978713135</v>
       </c>
       <c r="S10">
-        <v>0.001548849689486503</v>
+        <v>0.001361563054108645</v>
       </c>
       <c r="T10">
-        <v>0.001548849689486503</v>
+        <v>0.001361563054108645</v>
       </c>
     </row>
   </sheetData>
